--- a/uploads/KATTT_Thông tin giảng viên cần điền ver2.1_06012025.xlsx
+++ b/uploads/KATTT_Thông tin giảng viên cần điền ver2.1_06012025.xlsx
@@ -1,30 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github_ttcs\Bang cap va CCCD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Khoa CNTT\Thông tin web giảng dạy\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CD143E2-9959-476D-B0CB-E54FA3F96696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="28800" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HKI 20242025" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="544">
   <si>
     <t>STT</t>
   </si>
@@ -86,114 +98,1601 @@
     <t>Bộ môn</t>
   </si>
   <si>
+    <t>Hà Văn Tiến</t>
+  </si>
+  <si>
     <t>Nam</t>
   </si>
   <si>
+    <t>05/05/1987</t>
+  </si>
+  <si>
+    <t>0986334458</t>
+  </si>
+  <si>
+    <t>hatien.at3c@gmail.com</t>
+  </si>
+  <si>
     <t>Thạc sĩ</t>
   </si>
   <si>
+    <t>Cán bộ</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phòng An ninh thông tin –Ngân hàng Vietcombank </t>
+  </si>
+  <si>
+    <t>042087008325</t>
+  </si>
+  <si>
+    <t>26/05/2023</t>
+  </si>
+  <si>
+    <t>Cục cảnh sát QLHC về TTXH</t>
+  </si>
+  <si>
+    <t>Tùng Lộc, Can Lộc, Hà Tĩnh</t>
+  </si>
+  <si>
+    <t>1018909247</t>
+  </si>
+  <si>
+    <t>Ngân hàng TMCP Ngoại thương Việt Nam (VCB) - Chi nhánh Hoàn Kiếm</t>
+  </si>
+  <si>
+    <t>ATTT</t>
+  </si>
+  <si>
+    <t>ATMMT</t>
+  </si>
+  <si>
+    <t>Trần Trung</t>
+  </si>
+  <si>
+    <t>22/01/1985</t>
+  </si>
+  <si>
+    <t>0908599738</t>
+  </si>
+  <si>
+    <t>trungt.cs.edu@gmail.com</t>
+  </si>
+  <si>
     <t>Giảng viên</t>
   </si>
   <si>
-    <t>05/05/1987</t>
-  </si>
-  <si>
-    <t>22/01/1985</t>
-  </si>
-  <si>
-    <t>0908599738</t>
-  </si>
-  <si>
-    <t>hatien.at3c@gmail.com</t>
-  </si>
-  <si>
-    <t>trungt.cs.edu@gmail.com</t>
-  </si>
-  <si>
-    <t>Cán bộ</t>
-  </si>
-  <si>
-    <t>26/05/2023</t>
+    <t>5.6</t>
+  </si>
+  <si>
+    <t>Khoa Công nghệ thông tin – Đại học Điện Lực</t>
+  </si>
+  <si>
+    <t>030085018881</t>
   </si>
   <si>
     <t>28/6/2021</t>
   </si>
   <si>
-    <t>Cục cảnh sát QLHC về TTXH</t>
-  </si>
-  <si>
     <t>Cục C06</t>
   </si>
   <si>
-    <t>Tùng Lộc, Can Lộc, Hà Tĩnh</t>
-  </si>
-  <si>
     <t>Số 74, 285 Đội Cấn, Liễu Giai, Ba Đình, HN</t>
   </si>
   <si>
     <t>0306559356</t>
   </si>
   <si>
-    <t>1018909247</t>
-  </si>
-  <si>
     <t>1037054847</t>
   </si>
   <si>
-    <t>ATTT</t>
-  </si>
-  <si>
-    <t>0986334458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phòng An ninh thông tin –Ngân hàng Vietcombank </t>
-  </si>
-  <si>
-    <t>Khoa Công nghệ thông tin – Đại học Điện Lực</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>5.6</t>
-  </si>
-  <si>
-    <t>Ngân hàng TMCP Ngoại thương Việt Nam (VCB) - Chi nhánh Hoàn Kiếm</t>
-  </si>
-  <si>
     <t>Ngân hàng TMCP Ngoại thương Việt Nam (VCB)</t>
   </si>
   <si>
-    <t>Tét an toàn 1</t>
-  </si>
-  <si>
-    <t>Tét an toàn 2</t>
-  </si>
-  <si>
-    <t>ATTM</t>
-  </si>
-  <si>
-    <t>01111111</t>
-  </si>
-  <si>
-    <t>02222222</t>
+    <t>Bùi Anh Đức</t>
+  </si>
+  <si>
+    <t>07/12/1996</t>
+  </si>
+  <si>
+    <t>0914619407</t>
+  </si>
+  <si>
+    <t>duc96127@gmail.com</t>
+  </si>
+  <si>
+    <t>Chuyên viên</t>
+  </si>
+  <si>
+    <t>Trung tâm an toàn thông tin - Ngân hàng tmcp Quân đội MBBank</t>
+  </si>
+  <si>
+    <t>001096016870</t>
+  </si>
+  <si>
+    <t>01/05/2021</t>
+  </si>
+  <si>
+    <t>Phòng 204 F2, TT CSSV, Thượng Đình, Thanh Xuân, Hà Nội</t>
+  </si>
+  <si>
+    <t>0020174126004</t>
+  </si>
+  <si>
+    <t>Ngân hàng TMCP Quân đội (MBBank) - Chi nhánh sở GD3</t>
+  </si>
+  <si>
+    <t>Hà Thị Thanh</t>
+  </si>
+  <si>
+    <t>Nữ</t>
+  </si>
+  <si>
+    <t>20/10/1977</t>
+  </si>
+  <si>
+    <t>0988757535</t>
+  </si>
+  <si>
+    <t>thanhht.gvm@actvn.edu.vn</t>
+  </si>
+  <si>
+    <t>Công ty CP Công nghệ giáo dục và dịch vụ Brotobyte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">034177006762    </t>
+  </si>
+  <si>
+    <t>16/04/2021</t>
+  </si>
+  <si>
+    <t>404 A9, TT Khương Thượng, Trung Tự, Đống Đa, Hà Nội</t>
+  </si>
+  <si>
+    <t>8759957529</t>
+  </si>
+  <si>
+    <t>1420205104262</t>
+  </si>
+  <si>
+    <t>Ngân hàng Nông nghiệp và phát triển nông thôn Việt Nam (Agribank) - Chi nhánh Đông Hà Nội</t>
+  </si>
+  <si>
+    <t>KHATTT</t>
+  </si>
+  <si>
+    <t>Hà Mạnh Tuyến</t>
+  </si>
+  <si>
+    <t>01/07/1984</t>
+  </si>
+  <si>
+    <t>0974053312</t>
+  </si>
+  <si>
+    <t>tuyenhm.evnit@gmail.com</t>
+  </si>
+  <si>
+    <t>Phòng giải pháp công nghệ - Công ty Viễn thông điện lực và CNTT (EVNICT)</t>
+  </si>
+  <si>
+    <t>008084000181</t>
+  </si>
+  <si>
+    <t>25/07/2022</t>
+  </si>
+  <si>
+    <t>Hinode City, 201 Minh Khai, MK, HBT, Hà Nội</t>
+  </si>
+  <si>
+    <t>8096477395</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1200355537</t>
+  </si>
+  <si>
+    <t>Ngân hàng TMCP đầu tư và phát triển Việt Nam (BIDV) - Chi nhánh Hoàn Kiếm</t>
+  </si>
+  <si>
+    <t>Đào Văn Giang</t>
+  </si>
+  <si>
+    <t>08/09/1994</t>
+  </si>
+  <si>
+    <t>0396654948</t>
+  </si>
+  <si>
+    <t>toannn@actvn.edu.vn</t>
+  </si>
+  <si>
+    <t>Trung tâm Tin học, Văn phòng Chính phủ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">001094030371    </t>
+  </si>
+  <si>
+    <t>25/04/2021</t>
+  </si>
+  <si>
+    <t>Cục trưởng cục CSĐKQL cư trú và DLDC</t>
+  </si>
+  <si>
+    <t>24 Ngách 102/32 Hoàng Đạo Thành, Kim Giang, Thanh Xuân, Hà Nội</t>
+  </si>
+  <si>
+    <t>173773196</t>
+  </si>
+  <si>
+    <t>Ngân hàng TMCP Việt Nam Thịnh Vượng (VP Bank) - Chi nhánh Đông Đô (Hà Nội)</t>
+  </si>
+  <si>
+    <t>Bùi Việt Thắng</t>
+  </si>
+  <si>
+    <t>12/09/1982</t>
+  </si>
+  <si>
+    <t>0983085387</t>
+  </si>
+  <si>
+    <t>Thangbv82@gmail.com</t>
+  </si>
+  <si>
+    <t>Phó phòng</t>
+  </si>
+  <si>
+    <t>Phòng An toàn hệ thống - Công Ty TNHH Kiểm toán BDO - BDO Việt Nam</t>
+  </si>
+  <si>
+    <t>080082000399</t>
+  </si>
+  <si>
+    <t>09/05/2021</t>
+  </si>
+  <si>
+    <t>C707 CT1 BCYCP, Khuất Duy Tiến, Nhân Chính, T/xuân, Hà Nội</t>
+  </si>
+  <si>
+    <t>8549805978</t>
+  </si>
+  <si>
+    <t>0451000428043</t>
+  </si>
+  <si>
+    <t>Ngân hàng TMCP Ngoại thương Việt Nam (VCB) - Chi nhánh Thành Công</t>
+  </si>
+  <si>
+    <t>CNPMAT</t>
+  </si>
+  <si>
+    <t>Nguyễn Đình Chiến</t>
+  </si>
+  <si>
+    <t>27/04/1998</t>
+  </si>
+  <si>
+    <t>0355260066</t>
+  </si>
+  <si>
+    <t>chiennd@misoft.com.vn</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kĩ sư ATTT</t>
+  </si>
+  <si>
+    <t>Công ty Misoft</t>
+  </si>
+  <si>
+    <t>027098007707</t>
+  </si>
+  <si>
+    <t>10/5/2021</t>
+  </si>
+  <si>
+    <t>CA TP Bắc Ninh.</t>
+  </si>
+  <si>
+    <t>Thôn Nga Hoàng, Yên Giả, Quế Võ, Bắc Ninh</t>
+  </si>
+  <si>
+    <t>0491000178776</t>
+  </si>
+  <si>
+    <t>Ngân hàng TMCP Ngoại thương Việt Nam (VCB) - Chi nhánh Cầu Diễn.</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Duy</t>
+  </si>
+  <si>
+    <t>06/04/1997</t>
+  </si>
+  <si>
+    <t>0368573313</t>
+  </si>
+  <si>
+    <t>duynguyen37.khoichuyen@gmail.com</t>
+  </si>
+  <si>
+    <t>Chuyên viên vận hành bảo mật</t>
+  </si>
+  <si>
+    <t>4.05</t>
+  </si>
+  <si>
+    <t>Trung tâm hạ tầng an ninh thông tin, Khối công nghệ, công ty cổ phần giải pháp thanh toán Việt Nam (VNPAY)</t>
+  </si>
+  <si>
+    <t>040097002182</t>
+  </si>
+  <si>
+    <t>20/04/2021</t>
+  </si>
+  <si>
+    <t>Khối 6, Trường Thi, Thành phố Vinh, Nghệ An</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2790461981  </t>
+  </si>
+  <si>
+    <t>Ngân hàng TMCP đầu tư và phát triển Việt Nam (BIDV) - Chi nhánh Thành Công (Hà Nội)</t>
+  </si>
+  <si>
+    <t>Nguyễn Hữu Hưng</t>
+  </si>
+  <si>
+    <t>20/01/1989</t>
+  </si>
+  <si>
+    <t>0969189889</t>
+  </si>
+  <si>
+    <t>hungcdsp89@gmail.com</t>
+  </si>
+  <si>
+    <t>Chuyên viên CNTT</t>
+  </si>
+  <si>
+    <t>Khối CNTT, Ngân hàng TMCP Quân đội VN.</t>
+  </si>
+  <si>
+    <t>001089047530</t>
+  </si>
+  <si>
+    <t>24/07/2021</t>
+  </si>
+  <si>
+    <t>Phú Cốc, Hà Hồi, Thường Tín, Hà Nội</t>
+  </si>
+  <si>
+    <t>8080122018888</t>
+  </si>
+  <si>
+    <t>Ngân hàng TMCP Quân đội (MBBank) - Chi nhánh Sở giao dịch 1</t>
+  </si>
+  <si>
+    <t>Hoàng Phương Thức</t>
+  </si>
+  <si>
+    <t>27/07/1984</t>
+  </si>
+  <si>
+    <t>0978978495</t>
+  </si>
+  <si>
+    <t>thuck44b@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chuyên gia CNTT    </t>
+  </si>
+  <si>
+    <t>Trung tâm CNTT- Ngân hàng Agribank.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">042084000065    </t>
+  </si>
+  <si>
+    <t>10/05/2021</t>
+  </si>
+  <si>
+    <t>P1902, B2, Skycentral, Tổ 30, Định Công, Hoàng Mai, Hà Nội</t>
+  </si>
+  <si>
+    <t>1460207001119</t>
+  </si>
+  <si>
+    <t>Ngân hàng Nông nghiệp và phát triển nông thôn Việt Nam (Agribank) - Chi nhánh Nam Hà Nội.</t>
+  </si>
+  <si>
+    <t>Dương Xuân Hiệp</t>
+  </si>
+  <si>
+    <t>07/08/1990</t>
+  </si>
+  <si>
+    <t>096 1024586</t>
+  </si>
+  <si>
+    <t>hiepbk789@gmail.com</t>
+  </si>
+  <si>
+    <t>Trưởng phòng NCPT VNCCERT</t>
+  </si>
+  <si>
+    <t>Trung tâm Ứng cứu khẩn cấp máy tính Việt Nam (VNCERT)</t>
+  </si>
+  <si>
+    <t>001090032205</t>
+  </si>
+  <si>
+    <t>15/11/2019</t>
+  </si>
+  <si>
+    <t>331 Lương Yên, Hai Bà Trưng, Hà Nội</t>
+  </si>
+  <si>
+    <t>0011004370031</t>
+  </si>
+  <si>
+    <t>Ngân hàng TMCP Ngoại thương Việt Nam (VCB) - Chi nhánh Sở giao dịch</t>
+  </si>
+  <si>
+    <t>Bùi Thiện Quang</t>
+  </si>
+  <si>
+    <t>12/12/1997</t>
+  </si>
+  <si>
+    <t>0398633397</t>
+  </si>
+  <si>
+    <t>thang_nm@mail.ru</t>
+  </si>
+  <si>
+    <t>Nhân viên</t>
+  </si>
+  <si>
+    <t>Công ty Cổ phần MISA</t>
+  </si>
+  <si>
+    <t>025097005029</t>
+  </si>
+  <si>
+    <t>10/08/2021</t>
+  </si>
+  <si>
+    <t>Cục Cảnh sát Quản lý hành chính về trật tự xã hội</t>
+  </si>
+  <si>
+    <t>Thọ Sơn, Thành phố Việt Trì, Phú Thọ</t>
+  </si>
+  <si>
+    <t>8603142175</t>
+  </si>
+  <si>
+    <t>7942957</t>
+  </si>
+  <si>
+    <t>Ngân hàng TMCP Á Châu (ACB) - Chi nhánh Hà Thành</t>
+  </si>
+  <si>
+    <t>ATTMĐT</t>
+  </si>
+  <si>
+    <t>Dương Thị Vân</t>
+  </si>
+  <si>
+    <t>05/06/1986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0987603724	</t>
+  </si>
+  <si>
+    <t>Duongvan85@gmail.com</t>
+  </si>
+  <si>
+    <t>Viện CNTT, Viện Hàm Lâm KH Việt Nam</t>
+  </si>
+  <si>
+    <t>038186001672</t>
+  </si>
+  <si>
+    <t>08/07/2016</t>
+  </si>
+  <si>
+    <t>Quốc Bảo, Văn Điển, Thanh Trì, Hà Nội</t>
+  </si>
+  <si>
+    <t>8021362069</t>
+  </si>
+  <si>
+    <t>21510002343317</t>
+  </si>
+  <si>
+    <t>Ngân hàng TMCP Đầu tư và phát triển Việt Nam (BIDV) - Chi nhánh Cầu Giấy</t>
+  </si>
+  <si>
+    <t>Trần Văn Thắng</t>
+  </si>
+  <si>
+    <t>20/02/1980</t>
+  </si>
+  <si>
+    <t>0912250486</t>
+  </si>
+  <si>
+    <t>Thangtv@hau.edu.vn</t>
+  </si>
+  <si>
+    <t>3.99</t>
+  </si>
+  <si>
+    <t>Khoa CNTT – ĐH Kiến Trúc HN</t>
+  </si>
+  <si>
+    <t>035080005042</t>
+  </si>
+  <si>
+    <t>22/11/2022</t>
+  </si>
+  <si>
+    <t>Tầng 10, Tòa Sdu 143 Trần Phú, Văn Quán, Hà Đông, HN</t>
+  </si>
+  <si>
+    <t>8043077555</t>
+  </si>
+  <si>
+    <t>0851000038668</t>
+  </si>
+  <si>
+    <t>Ngân hàng TMCP Ngoại Thương Việt Nam (VCB) - Chi nhánh Hà Thành (Hà Nội)</t>
+  </si>
+  <si>
+    <t>Trần Thị Phương Chi</t>
+  </si>
+  <si>
+    <t>20/06/1997</t>
+  </si>
+  <si>
+    <t>0973802384</t>
+  </si>
+  <si>
+    <t>chiphuong2006@gmail.com</t>
+  </si>
+  <si>
+    <t>Ngân hàng Thương mại cổ phần Kỹ Thương Việt Nam, phòng CNTT</t>
+  </si>
+  <si>
+    <t>001197022268</t>
+  </si>
+  <si>
+    <t>09/04/2021</t>
+  </si>
+  <si>
+    <t>Số 10A, Ngõ 19, Vương Thừa Vũ, Khương Mai, Thanh Xuân, Hà Nội</t>
+  </si>
+  <si>
+    <t>19035707266014</t>
+  </si>
+  <si>
+    <t>Ngân hàng TMCP Kỹ thương Việt Nam (Techcombank) - Chi nhánh Hội sở</t>
+  </si>
+  <si>
+    <t>Ngô Văn Nghĩa</t>
+  </si>
+  <si>
+    <t>14/05/1997</t>
+  </si>
+  <si>
+    <t>0388051997</t>
+  </si>
+  <si>
+    <t>ngovannghia1997kma@gmail.com</t>
+  </si>
+  <si>
+    <t>024097010525</t>
+  </si>
+  <si>
+    <t>26/09/2023</t>
+  </si>
+  <si>
+    <t>Cục cảnh sát quản lý hành chính về trật tự xã hội</t>
+  </si>
+  <si>
+    <t>Vân Xuyên, Hoàng Vân, Hiệp Hòa, Bắc Giang</t>
+  </si>
+  <si>
+    <t>8481519142</t>
+  </si>
+  <si>
+    <t>19037913223014</t>
+  </si>
+  <si>
+    <t>Ngân hàng TMCP Kỹ thương Việt Nam (Techcombank) - Chi nhánh Hội sở chính</t>
+  </si>
+  <si>
+    <t>Lê Anh Tú</t>
+  </si>
+  <si>
+    <t>22/07/1995</t>
+  </si>
+  <si>
+    <t>0335283513</t>
+  </si>
+  <si>
+    <t>leanhtu227@gmail.com</t>
+  </si>
+  <si>
+    <t>Chuyên viên cao cấp</t>
+  </si>
+  <si>
+    <t>Phòng giám sát và ứng cứu sự cố an ninh mạng, Ngân hàng TMCP Quân đội -MBBank</t>
+  </si>
+  <si>
+    <t>026095003215</t>
+  </si>
+  <si>
+    <t>22/11/2021</t>
+  </si>
+  <si>
+    <t>Tổ dân phố số 20, Trung Văn, Nam Từ Liêm, Hà Nội</t>
+  </si>
+  <si>
+    <t>8446629544</t>
+  </si>
+  <si>
+    <t>4410102271995</t>
+  </si>
+  <si>
+    <t>Ngân hàng TMCP Quân đội (MBBank) - Chi nhánh Sở giao dịch số 1 (Hà Nội)</t>
+  </si>
+  <si>
+    <t>Phan Anh Việt</t>
+  </si>
+  <si>
+    <t>29/10/1985</t>
+  </si>
+  <si>
+    <t>0912654786</t>
+  </si>
+  <si>
+    <t>phananhviet85@gmail.com</t>
+  </si>
+  <si>
+    <t>Cục CNTT - Bộ Tư Pháp</t>
+  </si>
+  <si>
+    <t>001085031574</t>
+  </si>
+  <si>
+    <t>29/07/2022</t>
+  </si>
+  <si>
+    <t>Số 16, Ngõ 336, Đường Nguyễn Trãi, Thanh Xuân, Hà Nội</t>
+  </si>
+  <si>
+    <t>13321926962019</t>
+  </si>
+  <si>
+    <t>Ngân hàng TMCP Kỹ thương Việt Nam (Techcombank) - Chi nhánh trung tâm thẻ</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Hiếu</t>
+  </si>
+  <si>
+    <t>14/09/1984</t>
+  </si>
+  <si>
+    <t>0961681084</t>
+  </si>
+  <si>
+    <t>hieunv1984@gmail.com</t>
+  </si>
+  <si>
+    <t>1.91</t>
+  </si>
+  <si>
+    <t>Ngân hàng Agribank Hà Nội</t>
+  </si>
+  <si>
+    <t xml:space="preserve">034084026848  </t>
+  </si>
+  <si>
+    <t>09/12/2021</t>
+  </si>
+  <si>
+    <t>Tổ 11, Thịnh Liệt, Hoàng Mai, Hà Nội</t>
+  </si>
+  <si>
+    <t>1460207000050</t>
+  </si>
+  <si>
+    <t>Ngân hàng Nông nghiệp và phát triển nông thôn Việt Nam (Agribank) - Chi nhánh Nam Hà Nội</t>
+  </si>
+  <si>
+    <t>Nguyễn Quỳnh Châu</t>
+  </si>
+  <si>
+    <t>30/08/1997</t>
+  </si>
+  <si>
+    <t>0399997955</t>
+  </si>
+  <si>
+    <t>Công ty CNTT VNPT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">001197006247  </t>
+  </si>
+  <si>
+    <t>25/4/2021</t>
+  </si>
+  <si>
+    <t>Thôn 6, Phù Lưu Tế, Mỹ Đức, Hà Nội</t>
+  </si>
+  <si>
+    <t>0020179789999</t>
+  </si>
+  <si>
+    <t>Ngân hàng TMCP Quân đội (MBBank) - Chi nhanh Hà Nội</t>
+  </si>
+  <si>
+    <t>Hoàng Thành Đạt</t>
+  </si>
+  <si>
+    <t>28/03/1997</t>
+  </si>
+  <si>
+    <t>0829995609</t>
+  </si>
+  <si>
+    <t>Nhân viên Kiểm thử ATTT</t>
+  </si>
+  <si>
+    <t>Công ty cổ phần giải pháp việt Hồng quang</t>
+  </si>
+  <si>
+    <t>036097008197</t>
+  </si>
+  <si>
+    <t>29/04/2021</t>
+  </si>
+  <si>
+    <t>Thành phố Nam Định,tỉnh Nam Định</t>
+  </si>
+  <si>
+    <t>8603143098</t>
+  </si>
+  <si>
+    <t>6499727</t>
+  </si>
+  <si>
+    <t>Ngân hàng TMCP Á Châu (ACB) - Chi nhánh Hà thành</t>
+  </si>
+  <si>
+    <t>Nguyễn Thanh Hải</t>
+  </si>
+  <si>
+    <t>02/12/1996</t>
+  </si>
+  <si>
+    <t>0822661212</t>
+  </si>
+  <si>
+    <t>haingt212@gmail.com</t>
+  </si>
+  <si>
+    <t>Lập trình viên</t>
+  </si>
+  <si>
+    <t>Công ty TNHH Alpaca Việt Nam</t>
+  </si>
+  <si>
+    <t>019096008792</t>
+  </si>
+  <si>
+    <t>17/12/2021</t>
+  </si>
+  <si>
+    <t>Cục cs quản lý hành chính về trật tự xã hội</t>
+  </si>
+  <si>
+    <t>Ba Hàng, thành phố Phổ Yên, Thái Nguyên</t>
+  </si>
+  <si>
+    <t>01911495701</t>
+  </si>
+  <si>
+    <t>Ngân hàng TMCP Tiên Phong (TPBank) - Chi nhánh TPBank Quickpay</t>
+  </si>
+  <si>
+    <t>Nguyễn Kim Ngọc</t>
+  </si>
+  <si>
+    <t>10/05/1996</t>
+  </si>
+  <si>
+    <t>0983188348</t>
+  </si>
+  <si>
+    <t>Nghiên cứu công nghệ</t>
+  </si>
+  <si>
+    <t>Công ty cổ phần MISA</t>
+  </si>
+  <si>
+    <t>042096013639</t>
+  </si>
+  <si>
+    <t>Hà Tĩnh</t>
+  </si>
+  <si>
+    <t>Yên Hồ, Đức Thọ, Hà Tĩnh</t>
+  </si>
+  <si>
+    <t>6499867</t>
+  </si>
+  <si>
+    <t>Trần Trọng Kỳ</t>
+  </si>
+  <si>
+    <t>12/06/1992</t>
+  </si>
+  <si>
+    <t>0941816699</t>
+  </si>
+  <si>
+    <t>kytt1itsec@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ngân hàng VPBank </t>
+  </si>
+  <si>
+    <t xml:space="preserve">031092008683   </t>
+  </si>
+  <si>
+    <t>Trấn Dương, Vĩnh Bảo, Hải Phòng</t>
+  </si>
+  <si>
+    <t>6868888888</t>
+  </si>
+  <si>
+    <t>Ngân hàng TMCP Quân đội (MBBank) - Chi nhánh Ba Đình (Hà Nội)</t>
+  </si>
+  <si>
+    <t>Nguyễn Trọng Vũ</t>
+  </si>
+  <si>
+    <t>03/09/1984</t>
+  </si>
+  <si>
+    <t>0376661040</t>
+  </si>
+  <si>
+    <t>trongvukma@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trưởng phòng ATTT	</t>
+  </si>
+  <si>
+    <t>Khối CNTT- Ngân hàng PVComBank.</t>
+  </si>
+  <si>
+    <t>038094029686</t>
+  </si>
+  <si>
+    <t>06/07/2022</t>
+  </si>
+  <si>
+    <t>Phố 1 Ngọc Khê, Thị trấn Ngọc Lặc, Ngọc Lặc, Thanh Hóa</t>
+  </si>
+  <si>
+    <t>8536147714</t>
+  </si>
+  <si>
+    <t>102000512866</t>
+  </si>
+  <si>
+    <t>Ngân hàng TMCP Đại chúng Việt Nam (PVCombank) - Chi nhánh Hội sở</t>
+  </si>
+  <si>
+    <t>Nguyễn Trọng Bình</t>
+  </si>
+  <si>
+    <t>16/04/1985</t>
+  </si>
+  <si>
+    <t>0979559484</t>
+  </si>
+  <si>
+    <t>Trongbinhkma@gmail.com</t>
+  </si>
+  <si>
+    <t>Phòng ATTT - Ngân hàng PVComBank</t>
+  </si>
+  <si>
+    <t>038085029697</t>
+  </si>
+  <si>
+    <t>18/12/2021</t>
+  </si>
+  <si>
+    <t>Núi Móng, Hòa sơn, Tiên Du, Bắc Ninh</t>
+  </si>
+  <si>
+    <t>8096472189</t>
+  </si>
+  <si>
+    <t>104000502093</t>
+  </si>
+  <si>
+    <t>Ngân hàng TMCP Đại chúng Việt Nam (PVCombank) - Chi nhánh Hội sở Hà Nội</t>
+  </si>
+  <si>
+    <t>Phan Văn Đức</t>
+  </si>
+  <si>
+    <t>07/12/1988</t>
+  </si>
+  <si>
+    <t>0912167039</t>
+  </si>
+  <si>
+    <t>Phanvnduc@gmail.com</t>
+  </si>
+  <si>
+    <t>Phòng an toàn thông tin – Trung tâm an toàn, bảo mật thông tin - FPT</t>
+  </si>
+  <si>
+    <t>042088000490</t>
+  </si>
+  <si>
+    <t>Tổ 47 phường Láng Thượng quận Đống Đa, Hà Nội</t>
+  </si>
+  <si>
+    <t>19022299361017</t>
+  </si>
+  <si>
+    <t>Ngân hàng TMCP Kỹ thương Việt Nam (Techcombank) - Chi nhánh Hà Thành</t>
+  </si>
+  <si>
+    <t>Cáp Khánh Duy</t>
+  </si>
+  <si>
+    <t>04/12/1988</t>
+  </si>
+  <si>
+    <t>0814416688</t>
+  </si>
+  <si>
+    <t>Khanhduycap@gmail.com</t>
+  </si>
+  <si>
+    <t>Trưởng phòng</t>
+  </si>
+  <si>
+    <t>Công ty Cổ phần Viễn thông Tin học – Bưu điện (CTIN).</t>
+  </si>
+  <si>
+    <t>024088000013</t>
+  </si>
+  <si>
+    <t>30/03/2023</t>
+  </si>
+  <si>
+    <t>Tổ 7, Vĩnh Hưng, Hoàng Mai, Hà Nội</t>
+  </si>
+  <si>
+    <t>8316852301</t>
+  </si>
+  <si>
+    <t>12410003210350</t>
+  </si>
+  <si>
+    <t>Ngân hàng TMCP Đầu tư và Phát triển Việt Nam (BIDV) - Chi nhánh Hoàn Kiếm (Hà Nội)</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Thu Hiền</t>
+  </si>
+  <si>
+    <t>02/01/1990</t>
+  </si>
+  <si>
+    <t>0818618998</t>
+  </si>
+  <si>
+    <t>hienntt.gvm@actvn.edu.vn</t>
+  </si>
+  <si>
+    <t>001190100067</t>
+  </si>
+  <si>
+    <t>Tổ 3, Mai Động, Hoàng Mai, Hà Nội</t>
+  </si>
+  <si>
+    <t>12410003210554</t>
+  </si>
+  <si>
+    <t>Lê Duy Anh</t>
+  </si>
+  <si>
+    <t>18/03/1994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0931118394 </t>
+  </si>
+  <si>
+    <t>anhld18394@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khối kiểm toán nội bộ - NH TMCP VN Thịnh Vượng VPBANK </t>
+  </si>
+  <si>
+    <t>001094024261</t>
+  </si>
+  <si>
+    <t>10/07/2021</t>
+  </si>
+  <si>
+    <t>Số 42, Ngõ 43 Trung Kính, Tổ 32, Trung Hòa, Cầu Giấy, HN</t>
+  </si>
+  <si>
+    <t>45466666789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ngân hàng TMCP Việt Nam Thịnh Vượng (VP Bank) - Chi nhánh Láng Hạ </t>
+  </si>
+  <si>
+    <t>Vũ Hoàng Đạt</t>
+  </si>
+  <si>
+    <t>21/06/1993</t>
+  </si>
+  <si>
+    <t>0949690246</t>
+  </si>
+  <si>
+    <t>hoangdatkma@gmail.com</t>
+  </si>
+  <si>
+    <t>Tổng Công ty Dịch vụ Viễn thông</t>
+  </si>
+  <si>
+    <t>036093005718</t>
+  </si>
+  <si>
+    <t>209, Tòa 2A, KNO Hưng Thịnh, Kiến Hưng, Hà Đông, HN</t>
+  </si>
+  <si>
+    <t>1008725564</t>
+  </si>
+  <si>
+    <t>Ngân hàng TMCP Sài Gòn (SHB) - Chi nhánh Tây Hà Nội</t>
+  </si>
+  <si>
+    <t>Đặng Vũ Hoàng</t>
+  </si>
+  <si>
+    <t>25/06/1963</t>
+  </si>
+  <si>
+    <t>0913585341</t>
+  </si>
+  <si>
+    <t>khoaa3t@gmail.com</t>
+  </si>
+  <si>
+    <t>Tiến sĩ</t>
+  </si>
+  <si>
+    <t>CBNH</t>
+  </si>
+  <si>
+    <t>8.6</t>
+  </si>
+  <si>
+    <t>Cán bộ nghỉ hưu</t>
+  </si>
+  <si>
+    <t>001063040664</t>
+  </si>
+  <si>
+    <t>30/06/2023</t>
+  </si>
+  <si>
+    <t>24C Trần Hưng Đạo, Phan Chu Trinh, Hoàn Kiếm, HN</t>
+  </si>
+  <si>
+    <t>825061963</t>
+  </si>
+  <si>
+    <t>Ngân hàng TMCP Quân đội (MBBank) - Chi nhánh Ba Đình</t>
+  </si>
+  <si>
+    <t>Trần Quang Kỳ</t>
+  </si>
+  <si>
+    <t>18/11/1960</t>
+  </si>
+  <si>
+    <t>0989586755</t>
+  </si>
+  <si>
+    <t>Đã nghỉ hưu</t>
+  </si>
+  <si>
+    <t>024061000014</t>
+  </si>
+  <si>
+    <t>P108 A12, Kim Giang, Thanh Xuân, Hà Nội</t>
+  </si>
+  <si>
+    <t>102870228713</t>
+  </si>
+  <si>
+    <t>Ngân hàng TMCP Công Thương Việt Nam (VietinBank) - Chi nhánh Kim Giang (Hà Nội)</t>
+  </si>
+  <si>
+    <t>Lê Việt Hà</t>
+  </si>
+  <si>
+    <t>03/11/1985</t>
+  </si>
+  <si>
+    <t>0936322263</t>
+  </si>
+  <si>
+    <t>levietha@chinhphu.vn</t>
+  </si>
+  <si>
+    <t>Phó trưởng phòng an ninh thông tin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">001085000991     </t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>15C Trần Khánh Dư, Phan Chu Trinh, Hoàn Kiếm, Hà Nội</t>
+  </si>
+  <si>
+    <t>8063258888</t>
+  </si>
+  <si>
+    <t>Ngân hàng TMCP Hàng Hải Việt Nam (MSB) - Chi nhánh Giang Văn Minh (Hà Nội)</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Quyết</t>
+  </si>
+  <si>
+    <t>16/11/1989</t>
+  </si>
+  <si>
+    <t>0981041189</t>
+  </si>
+  <si>
+    <t>quyetnv.gvm@actvn.edu.vn</t>
+  </si>
+  <si>
+    <t>Ngân Hàng TMCP Công Thương Việt Nam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">001089011540    </t>
+  </si>
+  <si>
+    <t>16/08/2021</t>
+  </si>
+  <si>
+    <t>TDP An Đào, Thị trấn Trâu Quỳ, Gia Lâm, Hà Nội</t>
+  </si>
+  <si>
+    <t>103879933168</t>
+  </si>
+  <si>
+    <t>Ngân Hàng TMCP Công Thương Việt Nam (VietinBank) - Chi nhánh thành phố Hà Nội</t>
+  </si>
+  <si>
+    <t>Nguyễn Trung Đức</t>
+  </si>
+  <si>
+    <t>09/05/1997</t>
+  </si>
+  <si>
+    <t>0941349021</t>
+  </si>
+  <si>
+    <t>nguyentrungduc0905@gmail.com</t>
+  </si>
+  <si>
+    <t>Công ty Công nghệ thông tin VNPT, Phòng Điều hành an ninh</t>
+  </si>
+  <si>
+    <t>024097008576</t>
+  </si>
+  <si>
+    <t>8/5/2022</t>
+  </si>
+  <si>
+    <t>Xóm Ngọc Sơn, Xã Tân Đức, Huyện Phú Bình, Thành phố Thái Nguyên</t>
+  </si>
+  <si>
+    <t>02726897095</t>
+  </si>
+  <si>
+    <t>Ngân hàng TMCP Tiên Phong (TPBank) - Chi nhánh Đường Chiến Thắng</t>
+  </si>
+  <si>
+    <t>Nguyễn Trọng Hiệp</t>
+  </si>
+  <si>
+    <t>17/02/1997</t>
+  </si>
+  <si>
+    <t>0927583683</t>
+  </si>
+  <si>
+    <t>tronghiep.cbg@gmail.com</t>
+  </si>
+  <si>
+    <t>Ngân hàng VPBank</t>
+  </si>
+  <si>
+    <t>024097010371</t>
+  </si>
+  <si>
+    <t>02/07/2021</t>
+  </si>
+  <si>
+    <t>Tổ dân phó Dinh Hương, Thị trấn Thắng, Hiệp hòa, Bắc Giang</t>
+  </si>
+  <si>
+    <t>1112226868999</t>
+  </si>
+  <si>
+    <t>Ngân hàng TMCP Việt Nam Thịnh Vượng (VP Bank) - Chi nhánh Hà Nội</t>
+  </si>
+  <si>
+    <t>Trần Đức Sự</t>
+  </si>
+  <si>
+    <t>08/09/1965</t>
+  </si>
+  <si>
+    <t>0913210965</t>
+  </si>
+  <si>
+    <t>tdsu65@gmail.com</t>
+  </si>
+  <si>
+    <t>PGS.TS</t>
+  </si>
+  <si>
+    <t>027065000238</t>
+  </si>
+  <si>
+    <t>08/12/2021</t>
+  </si>
+  <si>
+    <t>87 Phố Thái Hà, Trung Liệt, Đống Đa, HN</t>
+  </si>
+  <si>
+    <t>89656868</t>
+  </si>
+  <si>
+    <t>Ngân hàng TMCP Á Châu (ACB) - Chi nhánh Đông Đô -PGD Trung Hoà</t>
+  </si>
+  <si>
+    <t>Lê Minh Hiếu</t>
+  </si>
+  <si>
+    <t>07/02/1998</t>
+  </si>
+  <si>
+    <t>0945006898</t>
+  </si>
+  <si>
+    <t>minhhieu0702@gmail.com</t>
+  </si>
+  <si>
+    <t>Khối CNTT</t>
+  </si>
+  <si>
+    <t>001098024242</t>
+  </si>
+  <si>
+    <t>Số 4B, Tràng Thi, Hàng Trống, Hoàn Kiếm, Hà Nội</t>
+  </si>
+  <si>
+    <t>0520117298888</t>
+  </si>
+  <si>
+    <t>Ngân hàng TMCP Quân đội (MBBank) - Chi nhánh Hội sở MB Bank 18 Lê Văn Lương</t>
+  </si>
+  <si>
+    <t>Võ Xuân Hòa</t>
+  </si>
+  <si>
+    <t>01/12/1991</t>
+  </si>
+  <si>
+    <t>0975787958</t>
+  </si>
+  <si>
+    <t>Vohoasci@gmail.com</t>
+  </si>
+  <si>
+    <t>Chuyên viên nghiên cứu</t>
+  </si>
+  <si>
+    <t>Công ty cổ phần công nghệ giáo dục và dịch vụ BRONTOBYTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">026191006595    </t>
+  </si>
+  <si>
+    <t>05/05/2023</t>
+  </si>
+  <si>
+    <t>Thôn Chung Ngọc Thanh, Phúc Yên, Vĩnh Phúc</t>
+  </si>
+  <si>
+    <t>184839768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ngân hàng TMCP Việt Nam Thịnh Vượng (VP Bank) - Chi nhánh Thăng Long </t>
+  </si>
+  <si>
+    <t>Trần Thị Thanh Liêm</t>
+  </si>
+  <si>
+    <t>23/02/1985</t>
+  </si>
+  <si>
+    <t>09362815153</t>
+  </si>
+  <si>
+    <t>thanhliemsntl1986@gmail.com</t>
+  </si>
+  <si>
+    <t>Tập đoàn Bảo Việt</t>
+  </si>
+  <si>
+    <t>035185011739</t>
+  </si>
+  <si>
+    <t>14/06/2022</t>
+  </si>
+  <si>
+    <t>707A Hh02 Ecolake View, Đại Kim, Hoàng Mai, Hà Nội</t>
+  </si>
+  <si>
+    <t>8009221618</t>
+  </si>
+  <si>
+    <t>0131400082003</t>
+  </si>
+  <si>
+    <t>Ngân hàng TMCP Bảo Việt (BaoVietBank) - Chi nhánh Sở giao dịch 1</t>
+  </si>
+  <si>
+    <t>Phạm Sỹ Nguyên</t>
+  </si>
+  <si>
+    <t>15/04/1990</t>
+  </si>
+  <si>
+    <t>0934849996</t>
+  </si>
+  <si>
+    <t>sn.infosec@gmail.com</t>
+  </si>
+  <si>
+    <t>5.33</t>
+  </si>
+  <si>
+    <t>066090000234</t>
+  </si>
+  <si>
+    <t>15/3/2021</t>
+  </si>
+  <si>
+    <t>Cục cảnh sát quản lý hành chính về TTXH</t>
+  </si>
+  <si>
+    <t>Thửa 270A-TDP 9, Mộ Lao, Hà Đông, Hà Nội</t>
+  </si>
+  <si>
+    <t>8405174055</t>
+  </si>
+  <si>
+    <t>666000000606</t>
+  </si>
+  <si>
+    <t>Ngân hàng thương mại cổ phần Đông Nam Á (SeABank) - Chi nhánh Sở Giao dịch</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Anh</t>
+  </si>
+  <si>
+    <t>19/04/1995</t>
+  </si>
+  <si>
+    <t>0357914444</t>
+  </si>
+  <si>
+    <t>nguyenthianhb6ds1@gmail.com</t>
+  </si>
+  <si>
+    <t>Cục CNTT, Ngân hàng nhà nước Việt Nam</t>
+  </si>
+  <si>
+    <t>001195020614</t>
+  </si>
+  <si>
+    <t>12/12/2023</t>
+  </si>
+  <si>
+    <t>Xóm 4, Đinh Xuyên, Hòa Nam, Ứng Hòa, Hà Nội</t>
+  </si>
+  <si>
+    <t>8399248524</t>
+  </si>
+  <si>
+    <t>19033969678019</t>
+  </si>
+  <si>
+    <t>Dương Ngọc Ngân</t>
+  </si>
+  <si>
+    <t>17/06/1997</t>
+  </si>
+  <si>
+    <t>0966746438</t>
+  </si>
+  <si>
+    <t>nganxu176@gmail.com</t>
+  </si>
+  <si>
+    <t>Cục An toàn thông tin</t>
+  </si>
+  <si>
+    <t>001197027455</t>
+  </si>
+  <si>
+    <t>67 ngõ 42 , Triều Khúc, T/Xuân Nam, Thanh Xuân, Hà Nội</t>
+  </si>
+  <si>
+    <t>8739718917</t>
+  </si>
+  <si>
+    <t>1401215030668</t>
+  </si>
+  <si>
+    <t>Ngân hàng Nông nghiệp và phát triển nông thôn Việt Nam (Agribank) - Chi nhánh Hà Nội I</t>
+  </si>
+  <si>
+    <t>Trịnh Quang Huy</t>
+  </si>
+  <si>
+    <t>21/10/1991</t>
+  </si>
+  <si>
+    <t>0394063179</t>
+  </si>
+  <si>
+    <t>Trinhquanghuya5@gmail.com</t>
+  </si>
+  <si>
+    <t>034091015293</t>
+  </si>
+  <si>
+    <t>16/09/2021</t>
+  </si>
+  <si>
+    <t>78 Phòng Không, Phước Long, Nha Trang, Khánh Hòa</t>
+  </si>
+  <si>
+    <t>8357687375</t>
+  </si>
+  <si>
+    <t>071000981777</t>
+  </si>
+  <si>
+    <t>Ngân hàng TMCP Ngoại thương Việt Nam (VCB) - Chi nhánh Gò vấp (HCM)</t>
+  </si>
+  <si>
+    <t>Lê Hoàng Diệp</t>
+  </si>
+  <si>
+    <t>04/11/1987</t>
+  </si>
+  <si>
+    <t>0936670499</t>
+  </si>
+  <si>
+    <t>Dieplh.dhnv@gmail.com</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>Đại học Nội vụ Hà Nội</t>
+  </si>
+  <si>
+    <t>037187000831</t>
+  </si>
+  <si>
+    <t>27/04/2021</t>
+  </si>
+  <si>
+    <t>Phòng 2701 chung cư CT4 Booyoung Vina - Vũ Trọng Khánh - Mộ Lao - Hà Đông - HN</t>
+  </si>
+  <si>
+    <t>8349804198</t>
+  </si>
+  <si>
+    <t>12010007277456</t>
+  </si>
+  <si>
+    <t>Ngân hàng TMCP Đầu tư và Phát triển Việt Nam (BIDV) - Chi nhánh Sở giao dịch 1</t>
+  </si>
+  <si>
+    <t>Lê Anh Đức</t>
+  </si>
+  <si>
+    <t>24/08/1992</t>
+  </si>
+  <si>
+    <t>henryduc248@gmail.com</t>
+  </si>
+  <si>
+    <t>Cục CNTT-BTP</t>
+  </si>
+  <si>
+    <t>001092024995</t>
+  </si>
+  <si>
+    <t>06/08/2022</t>
+  </si>
+  <si>
+    <t>TDP số 16, Mộ Lao, Hà Đông, Hà Nội</t>
+  </si>
+  <si>
+    <t>8530864440</t>
+  </si>
+  <si>
+    <t>1303206154388</t>
+  </si>
+  <si>
+    <t>Ngân hàng Nông nghiệp và phát triển nông thôn Việt Nam - Chi nhánh Hà thành (Hà Nội)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -210,6 +1709,18 @@
       <family val="1"/>
     </font>
     <font>
+      <sz val="13"/>
+      <color rgb="FF222222"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF081C36"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <name val="Times New Roman"/>
@@ -220,13 +1731,26 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="13"/>
+      <color theme="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -240,8 +1764,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -280,6 +1822,19 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -298,65 +1853,130 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Siêu kết nối" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -687,232 +2307,3009 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U45" sqref="U45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08203125" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.899999999999999"/>
   <cols>
-    <col min="1" max="1" width="7" style="14" customWidth="1"/>
-    <col min="2" max="2" width="21.1640625" style="14" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" style="14" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" style="14" customWidth="1"/>
-    <col min="6" max="6" width="26.1640625" style="14" customWidth="1"/>
-    <col min="7" max="7" width="9.08203125" style="14" customWidth="1"/>
-    <col min="8" max="8" width="11.08203125" style="14" customWidth="1"/>
-    <col min="9" max="9" width="12.9140625" style="14" customWidth="1"/>
-    <col min="10" max="10" width="10.1640625" style="17" customWidth="1"/>
-    <col min="11" max="11" width="27.6640625" style="14" customWidth="1"/>
-    <col min="12" max="12" width="16.08203125" style="14" customWidth="1"/>
-    <col min="13" max="14" width="18.4140625" style="14" customWidth="1"/>
-    <col min="15" max="15" width="31.58203125" style="14" customWidth="1"/>
-    <col min="16" max="16" width="19.1640625" style="14" customWidth="1"/>
-    <col min="17" max="17" width="21.1640625" style="14" customWidth="1"/>
-    <col min="18" max="18" width="29.58203125" style="14" customWidth="1"/>
-    <col min="19" max="19" width="9.08203125" style="14" customWidth="1"/>
-    <col min="20" max="20" width="13.4140625" style="17" customWidth="1"/>
-    <col min="21" max="16384" width="9.08203125" style="14"/>
+    <col min="1" max="1" width="7" style="28" customWidth="1"/>
+    <col min="2" max="2" width="21.25" style="28" customWidth="1"/>
+    <col min="3" max="3" width="10.25" style="28" customWidth="1"/>
+    <col min="4" max="4" width="14.25" style="28" customWidth="1"/>
+    <col min="5" max="5" width="13.75" style="28" customWidth="1"/>
+    <col min="6" max="6" width="26.25" style="28" customWidth="1"/>
+    <col min="7" max="7" width="9.125" style="28" customWidth="1"/>
+    <col min="8" max="8" width="11.125" style="28" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="28" customWidth="1"/>
+    <col min="10" max="10" width="10.25" style="32" customWidth="1"/>
+    <col min="11" max="11" width="27.75" style="28" customWidth="1"/>
+    <col min="12" max="12" width="16.125" style="28" customWidth="1"/>
+    <col min="13" max="14" width="18.375" style="28" customWidth="1"/>
+    <col min="15" max="15" width="31.625" style="28" customWidth="1"/>
+    <col min="16" max="16" width="19.25" style="28" customWidth="1"/>
+    <col min="17" max="17" width="21.25" style="28" customWidth="1"/>
+    <col min="18" max="18" width="29.625" style="28" customWidth="1"/>
+    <col min="19" max="19" width="9.125" style="28" customWidth="1"/>
+    <col min="20" max="20" width="13.375" style="32" customWidth="1"/>
+    <col min="21" max="16384" width="9.125" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="33">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:20" ht="33.6">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="R1" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="S1" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="T1" s="22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="49.5">
-      <c r="A2" s="15">
+    <row r="2" spans="1:20" ht="50.45">
+      <c r="A2" s="29">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="11" t="s">
+      <c r="B2" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="C2" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>39</v>
-      </c>
       <c r="F2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="23"/>
+      <c r="I2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>49</v>
+      <c r="L2" s="25" t="s">
+        <v>29</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>31</v>
       </c>
       <c r="O2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" s="26">
+        <v>8134434814</v>
+      </c>
+      <c r="Q2" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="P2" s="13">
-        <v>8134434814</v>
-      </c>
-      <c r="Q2" s="13" t="s">
+      <c r="R2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S2" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="T2" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="R2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:20" ht="40.9" customHeight="1">
+      <c r="A3" s="29">
+        <v>2</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="23"/>
+      <c r="I3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="M3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="P3" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q3" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="S3" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="T3" s="24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="50.45">
+      <c r="A4" s="29">
+        <v>3</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="23"/>
+      <c r="I4" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L4" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="P4" s="26">
+        <v>8687518720</v>
+      </c>
+      <c r="Q4" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="S4" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="T4" s="24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="67.150000000000006">
+      <c r="A5" s="29">
+        <v>4</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="14"/>
+      <c r="I5" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L5" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="P5" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q5" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="S5" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="50.45">
+      <c r="A6" s="29">
+        <v>5</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="14"/>
+      <c r="I6" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="P6" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q6" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="R6" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="S6" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="50.45">
+      <c r="A7" s="29">
+        <v>6</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="14"/>
+      <c r="I7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="L7" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="P7" s="26">
+        <v>8496481741</v>
+      </c>
+      <c r="Q7" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S7" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="50.45">
+      <c r="A8" s="29">
+        <v>7</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="14"/>
+      <c r="I8" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L8" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="P8" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q8" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="S8" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="50.45">
+      <c r="A9" s="29">
+        <v>8</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="14"/>
+      <c r="I9" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L9" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="P9" s="26">
+        <v>8609963989</v>
+      </c>
+      <c r="Q9" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="S9" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="84">
+      <c r="A10" s="29">
+        <v>9</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="14"/>
+      <c r="I10" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L10" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="P10" s="26">
+        <v>8574959026</v>
+      </c>
+      <c r="Q10" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="R10" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="S10" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="50.45">
+      <c r="A11" s="29">
+        <v>10</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="14"/>
+      <c r="I11" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J11" s="2">
+        <v>2.34</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="L11" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="P11" s="26">
+        <v>8333045587</v>
+      </c>
+      <c r="Q11" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="S11" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="67.150000000000006">
+      <c r="A12" s="29">
+        <v>11</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="14"/>
+      <c r="I12" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="L12" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="N12" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="P12" s="26">
+        <v>103218022</v>
+      </c>
+      <c r="Q12" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="S12" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="50.45">
+      <c r="A13" s="29">
+        <v>12</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="14"/>
+      <c r="I13" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="L13" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="P13" s="26">
+        <v>8693894459</v>
+      </c>
+      <c r="Q13" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="S13" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="50.45">
+      <c r="A14" s="29">
+        <v>13</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="14"/>
+      <c r="I14" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="L14" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="P14" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q14" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="S14" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="50.45">
+      <c r="A15" s="29">
+        <v>14</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="14"/>
+      <c r="I15" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="J15" s="2">
+        <v>5</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="L15" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="P15" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q15" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="S15" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="50.45">
+      <c r="A16" s="29">
+        <v>15</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="14"/>
+      <c r="I16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L16" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="P16" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q16" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="S16" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="T16" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="50.45">
+      <c r="A17" s="29">
+        <v>16</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="14"/>
+      <c r="I17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="L17" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="P17" s="26">
+        <v>8706289532</v>
+      </c>
+      <c r="Q17" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="S17" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="50.45">
+      <c r="A18" s="29">
+        <v>17</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="14"/>
+      <c r="I18" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L18" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="P18" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q18" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="S18" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="84" customHeight="1">
+      <c r="A19" s="29">
+        <v>18</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" s="14"/>
+      <c r="I19" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="J19" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="L19" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="P19" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q19" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="S19" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="T19" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="50.45">
+      <c r="A20" s="29">
+        <v>19</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>238</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="14"/>
+      <c r="I20" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="L20" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="P20" s="26">
+        <v>8035459328</v>
+      </c>
+      <c r="Q20" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="S20" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="67.150000000000006">
+      <c r="A21" s="29">
+        <v>20</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" s="14"/>
+      <c r="I21" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="L21" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="P21" s="26">
+        <v>8009180707</v>
+      </c>
+      <c r="Q21" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="S21" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="50.45">
+      <c r="A22" s="29">
+        <v>21</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22" s="14"/>
+      <c r="I22" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="L22" s="25" t="s">
+        <v>262</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="O22" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="P22" s="26">
+        <v>8498013435</v>
+      </c>
+      <c r="Q22" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="S22" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="50.45">
+      <c r="A23" s="29">
+        <v>22</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>269</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H23" s="14"/>
+      <c r="I23" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="L23" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="O23" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="P23" s="26" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q23" s="26" t="s">
+        <v>276</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="S23" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="50.45">
+      <c r="A24" s="29">
+        <v>23</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>279</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>280</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24" s="14"/>
+      <c r="I24" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="L24" s="25" t="s">
+        <v>284</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="O24" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="P24" s="26">
+        <v>8443811844</v>
+      </c>
+      <c r="Q24" s="26" t="s">
+        <v>288</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="S24" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="33.6">
+      <c r="A25" s="29">
+        <v>24</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>290</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>291</v>
+      </c>
+      <c r="E25" s="25" t="s">
+        <v>292</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H25" s="14"/>
+      <c r="I25" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="L25" s="25" t="s">
+        <v>295</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="O25" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="P25" s="26">
+        <v>8603143108</v>
+      </c>
+      <c r="Q25" s="26" t="s">
+        <v>298</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="S25" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="T25" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" ht="50.45">
+      <c r="A26" s="29">
+        <v>25</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>299</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>300</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>301</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H26" s="14"/>
+      <c r="I26" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="L26" s="25" t="s">
+        <v>304</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="O26" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="P26" s="26">
+        <v>8676584506</v>
+      </c>
+      <c r="Q26" s="26" t="s">
+        <v>306</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="S26" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="T26" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="50.45">
+      <c r="A27" s="29">
+        <v>26</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>308</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>309</v>
+      </c>
+      <c r="E27" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="F27" s="27" t="s">
+        <v>311</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H27" s="14"/>
+      <c r="I27" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="L27" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="O27" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="P27" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q27" s="26" t="s">
+        <v>318</v>
+      </c>
+      <c r="R27" s="38" t="s">
+        <v>319</v>
+      </c>
+      <c r="S27" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="T27" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" ht="50.45">
+      <c r="A28" s="29">
+        <v>27</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>320</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>321</v>
+      </c>
+      <c r="E28" s="25" t="s">
+        <v>322</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H28" s="14"/>
+      <c r="I28" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="L28" s="25" t="s">
+        <v>325</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="O28" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="P28" s="26" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q28" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="S28" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="T28" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" ht="50.45">
+      <c r="A29" s="29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>331</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>332</v>
+      </c>
+      <c r="E29" s="25" t="s">
+        <v>333</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H29" s="14"/>
+      <c r="I29" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="L29" s="25" t="s">
+        <v>336</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="O29" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="P29" s="26">
+        <v>8316855119</v>
+      </c>
+      <c r="Q29" s="26" t="s">
+        <v>338</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="S29" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" ht="50.45">
+      <c r="A30" s="29">
+        <v>29</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>340</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>341</v>
+      </c>
+      <c r="E30" s="25" t="s">
+        <v>342</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H30" s="14"/>
+      <c r="I30" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="J30" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="L30" s="25" t="s">
+        <v>346</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="O30" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="P30" s="26" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q30" s="26" t="s">
+        <v>350</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="S30" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="T30" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" ht="50.45">
+      <c r="A31" s="29">
+        <v>30</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>353</v>
+      </c>
+      <c r="E31" s="25" t="s">
+        <v>354</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H31" s="14"/>
+      <c r="I31" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="L31" s="25" t="s">
+        <v>356</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="O31" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="P31" s="26">
+        <v>8316852291</v>
+      </c>
+      <c r="Q31" s="26" t="s">
+        <v>358</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="S31" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="T31" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" ht="50.45">
+      <c r="A32" s="29">
+        <v>31</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>359</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="23" t="s">
+        <v>360</v>
+      </c>
+      <c r="E32" s="25" t="s">
+        <v>361</v>
+      </c>
+      <c r="F32" s="27" t="s">
+        <v>362</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H32" s="14"/>
+      <c r="I32" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="L32" s="25" t="s">
+        <v>364</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="O32" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="P32" s="26">
+        <v>8389159392</v>
+      </c>
+      <c r="Q32" s="26" t="s">
+        <v>367</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="S32" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="T32" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" ht="50.45">
+      <c r="A33" s="29">
+        <v>32</v>
+      </c>
+      <c r="B33" s="23" t="s">
+        <v>369</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="23" t="s">
+        <v>370</v>
+      </c>
+      <c r="E33" s="25" t="s">
+        <v>371</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H33" s="14"/>
+      <c r="I33" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="L33" s="25" t="s">
+        <v>374</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="O33" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="P33" s="26">
+        <v>8286350534</v>
+      </c>
+      <c r="Q33" s="26" t="s">
+        <v>376</v>
+      </c>
+      <c r="R33" s="33" t="s">
+        <v>377</v>
+      </c>
+      <c r="S33" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="T33" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" ht="50.45">
+      <c r="A34" s="29">
+        <v>33</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>378</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" s="23" t="s">
+        <v>379</v>
+      </c>
+      <c r="E34" s="25" t="s">
+        <v>380</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="H34" s="14"/>
+      <c r="I34" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="L34" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="O34" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="P34" s="26"/>
+      <c r="Q34" s="26" t="s">
+        <v>389</v>
+      </c>
+      <c r="R34" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="S34" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="T34" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" ht="67.150000000000006">
+      <c r="A35" s="29">
+        <v>34</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>391</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="23" t="s">
+        <v>392</v>
+      </c>
+      <c r="E35" s="25" t="s">
+        <v>393</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H35" s="14"/>
+      <c r="I35" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="J35" s="2">
+        <v>8.6</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="L35" s="25" t="s">
+        <v>395</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="O35" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="P35" s="26"/>
+      <c r="Q35" s="26" t="s">
+        <v>397</v>
+      </c>
+      <c r="R35" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="S35" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="T35" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" ht="50.45">
+      <c r="A36" s="29">
+        <v>35</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>399</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="23" t="s">
+        <v>400</v>
+      </c>
+      <c r="E36" s="25" t="s">
+        <v>401</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H36" s="14"/>
+      <c r="I36" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="L36" s="25" t="s">
+        <v>404</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="O36" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="P36" s="26" t="s">
+        <v>407</v>
+      </c>
+      <c r="Q36" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="S36" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="T36" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" ht="50.45">
+      <c r="A37" s="29">
+        <v>36</v>
+      </c>
+      <c r="B37" s="23" t="s">
+        <v>409</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37" s="23" t="s">
+        <v>410</v>
+      </c>
+      <c r="E37" s="25" t="s">
+        <v>411</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H37" s="14"/>
+      <c r="I37" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="J37" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="L37" s="25" t="s">
+        <v>414</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="N37" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="O37" s="35" t="s">
+        <v>416</v>
+      </c>
+      <c r="P37" s="26">
+        <v>8323918137</v>
+      </c>
+      <c r="Q37" s="26" t="s">
+        <v>417</v>
+      </c>
+      <c r="R37" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="S37" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="T37" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" ht="50.45">
+      <c r="A38" s="29">
+        <v>37</v>
+      </c>
+      <c r="B38" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="C38" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38" s="23" t="s">
+        <v>420</v>
+      </c>
+      <c r="E38" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>422</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H38" s="14"/>
+      <c r="I38" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="L38" s="25" t="s">
+        <v>424</v>
+      </c>
+      <c r="M38" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="N38" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="O38" s="14" t="s">
+        <v>426</v>
+      </c>
+      <c r="P38" s="26">
+        <v>8448977480</v>
+      </c>
+      <c r="Q38" s="26" t="s">
+        <v>427</v>
+      </c>
+      <c r="R38" s="14" t="s">
+        <v>428</v>
+      </c>
+      <c r="S38" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="T38" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" ht="50.45">
+      <c r="A39" s="29">
         <v>38</v>
       </c>
-      <c r="T2" s="11" t="s">
+      <c r="B39" s="23" t="s">
+        <v>429</v>
+      </c>
+      <c r="C39" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39" s="23" t="s">
+        <v>430</v>
+      </c>
+      <c r="E39" s="25" t="s">
+        <v>431</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>432</v>
+      </c>
+      <c r="G39" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H39" s="14"/>
+      <c r="I39" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="J39" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="L39" s="25" t="s">
+        <v>434</v>
+      </c>
+      <c r="M39" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="N39" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="O39" s="18" t="s">
+        <v>436</v>
+      </c>
+      <c r="P39" s="26">
+        <v>8484523355</v>
+      </c>
+      <c r="Q39" s="26" t="s">
+        <v>437</v>
+      </c>
+      <c r="R39" s="15" t="s">
+        <v>438</v>
+      </c>
+      <c r="S39" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="T39" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" ht="50.45">
+      <c r="A40" s="29">
+        <v>39</v>
+      </c>
+      <c r="B40" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="C40" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D40" s="23" t="s">
+        <v>440</v>
+      </c>
+      <c r="E40" s="25" t="s">
+        <v>441</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="H40" s="14"/>
+      <c r="I40" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="L40" s="25" t="s">
+        <v>444</v>
+      </c>
+      <c r="M40" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="N40" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="O40" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="P40" s="26">
+        <v>8309891645</v>
+      </c>
+      <c r="Q40" s="26" t="s">
+        <v>447</v>
+      </c>
+      <c r="R40" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="S40" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="T40" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" ht="50.45">
+      <c r="A41" s="29">
+        <v>40</v>
+      </c>
+      <c r="B41" s="23" t="s">
+        <v>449</v>
+      </c>
+      <c r="C41" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D41" s="23" t="s">
+        <v>450</v>
+      </c>
+      <c r="E41" s="25" t="s">
+        <v>451</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H41" s="14"/>
+      <c r="I41" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="J41" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="L41" s="25" t="s">
+        <v>454</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="N41" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="O41" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="P41" s="26">
+        <v>8661917745</v>
+      </c>
+      <c r="Q41" s="26" t="s">
+        <v>456</v>
+      </c>
+      <c r="R41" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="S41" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="T41" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" ht="50.45">
+      <c r="A42" s="29">
+        <v>41</v>
+      </c>
+      <c r="B42" s="23" t="s">
+        <v>458</v>
+      </c>
+      <c r="C42" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D42" s="23" t="s">
+        <v>459</v>
+      </c>
+      <c r="E42" s="25" t="s">
+        <v>460</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H42" s="14"/>
+      <c r="I42" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="J42" s="2">
+        <v>5</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="L42" s="25" t="s">
+        <v>464</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="N42" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="O42" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="P42" s="26">
+        <v>8113283145</v>
+      </c>
+      <c r="Q42" s="26" t="s">
+        <v>467</v>
+      </c>
+      <c r="R42" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="S42" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="T42" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" ht="50.45">
+      <c r="A43" s="29">
+        <v>42</v>
+      </c>
+      <c r="B43" s="23" t="s">
+        <v>469</v>
+      </c>
+      <c r="C43" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D43" s="23" t="s">
+        <v>470</v>
+      </c>
+      <c r="E43" s="25" t="s">
+        <v>471</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H43" s="14"/>
+      <c r="I43" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="L43" s="25" t="s">
+        <v>474</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="N43" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="O43" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="P43" s="26" t="s">
+        <v>477</v>
+      </c>
+      <c r="Q43" s="26" t="s">
+        <v>478</v>
+      </c>
+      <c r="R43" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="S43" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="T43" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" ht="50.45">
+      <c r="A44" s="29">
+        <v>43</v>
+      </c>
+      <c r="B44" s="23" t="s">
+        <v>480</v>
+      </c>
+      <c r="C44" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D44" s="23" t="s">
+        <v>481</v>
+      </c>
+      <c r="E44" s="25" t="s">
+        <v>482</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H44" s="14"/>
+      <c r="I44" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="L44" s="25" t="s">
+        <v>485</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="N44" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="O44" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="P44" s="26" t="s">
+        <v>489</v>
+      </c>
+      <c r="Q44" s="26" t="s">
+        <v>490</v>
+      </c>
+      <c r="R44" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="S44" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="T44" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" s="30" customFormat="1" ht="48" customHeight="1">
+      <c r="A45" s="29">
+        <v>44</v>
+      </c>
+      <c r="B45" s="23" t="s">
+        <v>492</v>
+      </c>
+      <c r="C45" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D45" s="23" t="s">
+        <v>493</v>
+      </c>
+      <c r="E45" s="25" t="s">
+        <v>494</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H45" s="14"/>
+      <c r="I45" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="L45" s="25" t="s">
+        <v>497</v>
+      </c>
+      <c r="M45" s="36" t="s">
+        <v>498</v>
+      </c>
+      <c r="N45" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="O45" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="P45" s="26" t="s">
+        <v>500</v>
+      </c>
+      <c r="Q45" s="26" t="s">
+        <v>501</v>
+      </c>
+      <c r="R45" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="S45" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="T45" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" ht="63.4" customHeight="1">
+      <c r="A46" s="29">
+        <v>45</v>
+      </c>
+      <c r="B46" s="23" t="s">
+        <v>502</v>
+      </c>
+      <c r="C46" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D46" s="23" t="s">
+        <v>503</v>
+      </c>
+      <c r="E46" s="25" t="s">
+        <v>504</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H46" s="25"/>
+      <c r="I46" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J46" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="L46" s="25" t="s">
+        <v>507</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="N46" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="O46" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="P46" s="26" t="s">
+        <v>509</v>
+      </c>
+      <c r="Q46" s="26" t="s">
+        <v>510</v>
+      </c>
+      <c r="R46" s="8" t="s">
+        <v>511</v>
+      </c>
+      <c r="S46" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="T46" s="26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" ht="49.15" customHeight="1">
+      <c r="A47" s="29">
+        <v>46</v>
+      </c>
+      <c r="B47" s="23" t="s">
+        <v>512</v>
+      </c>
+      <c r="C47" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D47" s="23" t="s">
+        <v>513</v>
+      </c>
+      <c r="E47" s="25" t="s">
+        <v>514</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H47" s="25"/>
+      <c r="I47" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J47" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L47" s="25" t="s">
+        <v>516</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="N47" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="O47" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="P47" s="26" t="s">
+        <v>519</v>
+      </c>
+      <c r="Q47" s="26" t="s">
+        <v>520</v>
+      </c>
+      <c r="R47" s="8" t="s">
+        <v>521</v>
+      </c>
+      <c r="S47" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="T47" s="26" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" ht="47.65" customHeight="1">
+      <c r="A48" s="29">
+        <v>47</v>
+      </c>
+      <c r="B48" s="23" t="s">
+        <v>522</v>
+      </c>
+      <c r="C48" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D48" s="23" t="s">
+        <v>523</v>
+      </c>
+      <c r="E48" s="25" t="s">
+        <v>524</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="J48" s="26" t="s">
+        <v>526</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="L48" s="25" t="s">
+        <v>528</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="N48" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="O48" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="P48" s="26" t="s">
+        <v>531</v>
+      </c>
+      <c r="Q48" s="26" t="s">
+        <v>532</v>
+      </c>
+      <c r="R48" s="8" t="s">
+        <v>533</v>
+      </c>
+      <c r="S48" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="T48" s="26" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" ht="58.5" customHeight="1">
+      <c r="A49" s="29">
         <v>48</v>
       </c>
+      <c r="B49" s="23" t="s">
+        <v>534</v>
+      </c>
+      <c r="C49" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D49" s="23" t="s">
+        <v>535</v>
+      </c>
+      <c r="E49" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H49" s="25"/>
+      <c r="I49" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="J49" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="L49" s="25" t="s">
+        <v>538</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="N49" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="O49" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="P49" s="26" t="s">
+        <v>541</v>
+      </c>
+      <c r="Q49" s="36" t="s">
+        <v>542</v>
+      </c>
+      <c r="R49" s="37" t="s">
+        <v>543</v>
+      </c>
+      <c r="S49" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="T49" s="26" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="3" spans="1:20" ht="41" customHeight="1">
-      <c r="A3" s="15">
-        <v>2</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="P3" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q3" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="S3" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="T3" s="11" t="s">
-        <v>48</v>
-      </c>
+    <row r="50" spans="1:20">
+      <c r="A50" s="31"/>
     </row>
-    <row r="4" spans="1:20">
-      <c r="A4" s="16"/>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" s="16"/>
+    <row r="51" spans="1:20">
+      <c r="A51" s="31"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F11" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F18" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F40" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="F33" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="F4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="F31" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="F10" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="F41" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="F6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="F27" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="F32" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="F45" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="F46" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="F47" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="F48" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="F49" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="33" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="33" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId17"/>
+  <ignoredErrors>
+    <ignoredError sqref="L48" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>